--- a/QC Prep.xlsx
+++ b/QC Prep.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Revature\Batch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DAF388-718C-4DA2-B49E-647AABABE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED407F5-00B4-4EE2-B734-91C57F069318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Day 1</t>
   </si>
@@ -301,6 +302,336 @@
   </si>
   <si>
     <t>It's a special method that can be overloaded by changing the signature. Default/no-arg constructor, parameterized/all-args constructor)</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Non-Access</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>strictfp</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>OOPs Concepts</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>explicit type casting</t>
+  </si>
+  <si>
+    <t>implicit type casting</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Immutable String</t>
+  </si>
+  <si>
+    <t>String Constant Pool</t>
+  </si>
+  <si>
+    <t>StringBuffer</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>UnChecked</t>
+  </si>
+  <si>
+    <t>Built-in</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>try/catch</t>
+  </si>
+  <si>
+    <t>throws</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>errors/exceptions</t>
+  </si>
+  <si>
+    <t>try with resource</t>
+  </si>
+  <si>
+    <t>multiple catch block</t>
+  </si>
+  <si>
+    <t>single catch block to handle multiple exceptions</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Collection API</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Iterators</t>
+  </si>
+  <si>
+    <t>ForEach</t>
+  </si>
+  <si>
+    <t>Collections.sort</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>Blueprint to create objects</t>
+  </si>
+  <si>
+    <t>Instance of the class</t>
+  </si>
+  <si>
+    <t>Least accessible (With in the class only accessible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessible within the same package only </t>
+  </si>
+  <si>
+    <t>Accessible within the same package as well as sub classes in other package</t>
+  </si>
+  <si>
+    <t>Accessible anywhere</t>
+  </si>
+  <si>
+    <t>(using the class, we can create n number of objects)</t>
+  </si>
+  <si>
+    <t>package/default (No access-modifier keyword)</t>
+  </si>
+  <si>
+    <t>private int a;</t>
+  </si>
+  <si>
+    <t>int a;</t>
+  </si>
+  <si>
+    <t>protected int a;</t>
+  </si>
+  <si>
+    <t>public int a;</t>
+  </si>
+  <si>
+    <t>Constants, Non-overriding method, Non extendable class</t>
+  </si>
+  <si>
+    <t>Class level member rather than instance level (Single value shared by all objects)</t>
+  </si>
+  <si>
+    <t>Counter variable</t>
+  </si>
+  <si>
+    <t>abstract - non-concrete /incomplete class or methods</t>
+  </si>
+  <si>
+    <t>to avoid storing the value in flat file during serialization</t>
+  </si>
+  <si>
+    <t>Hiding Implementation</t>
+  </si>
+  <si>
+    <t>Reusing existing code ( compile-time &amp; run-time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to provide members to other classes </t>
+  </si>
+  <si>
+    <t>hiding the data (protecting the data - private variables &amp; public methods)</t>
+  </si>
+  <si>
+    <t>Narrowing - bigger to small - type casting operator is needed - (target_type)</t>
+  </si>
+  <si>
+    <t>Widening - smaller to bigger - No additionla operator is needed - automatically</t>
+  </si>
+  <si>
+    <t>Non-modifiable strings [array of charactes] - can be created in two ways</t>
+  </si>
+  <si>
+    <t>this is a area in JVM memory to store all the String literals</t>
+  </si>
+  <si>
+    <t>Mutable Strings used for frequent string alteration programs</t>
+  </si>
+  <si>
+    <t>all methods of StringBuffer class is synchronized - It can be used in multi-threaded environment</t>
+  </si>
+  <si>
+    <t>It's similar to StringBuffer but un-synchronized methods</t>
+  </si>
+  <si>
+    <t>Can't be used in multi-threaded programs, but it's faster than StringBuffer</t>
+  </si>
+  <si>
+    <t>Exceptions are some un-avoidable condition which will terminate the program pre-matuely</t>
+  </si>
+  <si>
+    <t>Compile time exceptions, without handling it, Compiler won't allow to run the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run-time Exceptions (Arithmetic, ArrayIndex, NullPointer) </t>
+  </si>
+  <si>
+    <t>java.lang - Throwable (Exceptions &amp; Error)</t>
+  </si>
+  <si>
+    <t>Can be created by extending Exception/RuntimeException Class</t>
+  </si>
+  <si>
+    <t>All the Sub-classes of RunTimeException Class</t>
+  </si>
+  <si>
+    <t>Recommended way of handling exceptions. Catch block will catch the exception and show thedetails and continue to execute the other codes.</t>
+  </si>
+  <si>
+    <t>Which will help the JVM to understand that methods that can throw exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's used to do some clean-up activities in Exception Handling, We usually place resource closing codes in finally block. </t>
+  </si>
+  <si>
+    <t>The code in finally block will get executed all the time.</t>
+  </si>
+  <si>
+    <t>Errors - Can't be prevented. OutOfMemoryError, StackOverFlowError</t>
+  </si>
+  <si>
+    <t>The resources created before the enterring the try block, can be automatically closed without using fnally block</t>
+  </si>
+  <si>
+    <t>try block can have multiple catch block catching different exceptions</t>
+  </si>
+  <si>
+    <t>Single catch block can also catch multiple exceptions object</t>
+  </si>
+  <si>
+    <t>It's used to handle group of objects together (sorting, searching, max, min, avg)</t>
+  </si>
+  <si>
+    <t>Collection work with objects only no primitive in collections</t>
+  </si>
+  <si>
+    <t>Set Won't allow duplicates</t>
+  </si>
+  <si>
+    <t>List allow duplicates, maintains the insertion order</t>
+  </si>
+  <si>
+    <t>Stores the data in key,value pair</t>
+  </si>
+  <si>
+    <t>Adding/removing element at the end is easy. Adding/removing element in the middle is tought</t>
+  </si>
+  <si>
+    <t>keys should be unique. (both keys and values are objects)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add(), addAll(), get(), size(), iterator(), </t>
+  </si>
+  <si>
+    <t>Dynamically Growing Array</t>
+  </si>
+  <si>
+    <t>LinkedList data structure representation in JAVA</t>
+  </si>
+  <si>
+    <t>Used to Store unique values. Will not maintain the insertion order</t>
+  </si>
+  <si>
+    <t>LinkedHashSet /TreeSet</t>
+  </si>
+  <si>
+    <t>TreeSet sort the data by default</t>
   </si>
 </sst>
 </file>
@@ -655,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -1030,4 +1361,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305B94-C2B3-48F1-A91F-844B35B572DA}">
+  <dimension ref="A4:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>